--- a/XlsSerializer.Examples.Web/data/Xlsx/Sheetwithstaticcells.xlsx
+++ b/XlsSerializer.Examples.Web/data/Xlsx/Sheetwithstaticcells.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>464a7858-54b0-4ad2-bb5c-3c5e9c8735cf</t>
+    <t>015a6e8e-ccea-4638-942f-647508d381e6</t>
   </si>
   <si>
     <t>item_0</t>
